--- a/Lab_3/Segway_files/Outputs/output8.xlsx
+++ b/Lab_3/Segway_files/Outputs/output8.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>447.5399518164571</v>
+        <v>9830.233645723867</v>
       </c>
       <c r="C2">
-        <v>835.9250900476281</v>
+        <v>14481.90470057123</v>
       </c>
       <c r="D2">
-        <v>0.007561128505206004</v>
+        <v>0.006416318237723334</v>
       </c>
       <c r="E2">
-        <v>-1.043772195692156</v>
+        <v>-1.013991540081222</v>
       </c>
       <c r="F2">
-        <v>0.03139816004712515</v>
+        <v>-0.03744299705804434</v>
       </c>
       <c r="G2">
-        <v>555.062</v>
+        <v>10014.681</v>
       </c>
       <c r="H2">
-        <v>799.89</v>
+        <v>14499.981</v>
       </c>
       <c r="I2">
-        <v>-0.00152</v>
+        <v>-0.00051</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,753 +438,753 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>441.7063098051371</v>
+        <v>9966.601622342312</v>
       </c>
       <c r="C3">
-        <v>792.2530285191634</v>
+        <v>14480.57179823308</v>
       </c>
       <c r="D3">
-        <v>0.1423433190219368</v>
+        <v>-0.2288379810417268</v>
       </c>
       <c r="E3">
-        <v>-1.004146908003444</v>
+        <v>-1.012141389385903</v>
       </c>
       <c r="F3">
-        <v>-0.006379787109211985</v>
+        <v>-0.03327468760726266</v>
       </c>
       <c r="G3">
-        <v>551.1557545124991</v>
+        <v>9975.462255100399</v>
       </c>
       <c r="H3">
-        <v>799.8959374977137</v>
+        <v>14500.00100156163</v>
       </c>
       <c r="I3">
-        <v>0.01584111111111111</v>
+        <v>-0.03010905660377359</v>
       </c>
       <c r="J3">
-        <v>0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>446.9598632801302</v>
+        <v>10208.86077677182</v>
       </c>
       <c r="C4">
-        <v>815.4738699772681</v>
+        <v>14689.28809041594</v>
       </c>
       <c r="D4">
-        <v>0.2753348522609739</v>
+        <v>-0.4700404868375082</v>
       </c>
       <c r="E4">
-        <v>-1.036063916118332</v>
+        <v>-0.9991638246063632</v>
       </c>
       <c r="F4">
-        <v>0.05439811456512125</v>
+        <v>-0.08336574618030795</v>
       </c>
       <c r="G4">
-        <v>543.3442347295056</v>
+        <v>9897.060306379773</v>
       </c>
       <c r="H4">
-        <v>799.7721839931103</v>
+        <v>14502.36232387305</v>
       </c>
       <c r="I4">
-        <v>0.05056333333333334</v>
+        <v>-0.08930716981132075</v>
       </c>
       <c r="J4">
-        <v>0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>504.2048336076278</v>
+        <v>10523.13259710541</v>
       </c>
       <c r="C5">
-        <v>793.0251212644289</v>
+        <v>14800.55498190026</v>
       </c>
       <c r="D5">
-        <v>0.413293768504862</v>
+        <v>-0.7044709002754029</v>
       </c>
       <c r="E5">
-        <v>-0.9665720349544163</v>
+        <v>-0.9643883185430514</v>
       </c>
       <c r="F5">
-        <v>0.1195906987610116</v>
+        <v>-0.1695287270065672</v>
       </c>
       <c r="G5">
-        <v>531.6404619132105</v>
+        <v>9779.872944238921</v>
       </c>
       <c r="H5">
-        <v>799.1798973842356</v>
+        <v>14512.85590850993</v>
       </c>
       <c r="I5">
-        <v>0.1026466666666667</v>
+        <v>-0.1781043396226415</v>
       </c>
       <c r="J5">
-        <v>0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>491.2453535771755</v>
+        <v>11178.83188116588</v>
       </c>
       <c r="C6">
-        <v>822.1697756673439</v>
+        <v>15133.7775258829</v>
       </c>
       <c r="D6">
-        <v>0.5577614805508302</v>
+        <v>-0.9414617889289427</v>
       </c>
       <c r="E6">
-        <v>-1.011068297654661</v>
+        <v>-0.9857449908271152</v>
       </c>
       <c r="F6">
-        <v>0.2161920091948375</v>
+        <v>-0.3141879537638357</v>
       </c>
       <c r="G6">
-        <v>516.0977048055889</v>
+        <v>9625.479502155245</v>
       </c>
       <c r="H6">
-        <v>797.5788581924978</v>
+        <v>14540.64854542251</v>
       </c>
       <c r="I6">
-        <v>0.1720911111111111</v>
+        <v>-0.2965005660377358</v>
       </c>
       <c r="J6">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>548.2369870353821</v>
+        <v>11817.55029111937</v>
       </c>
       <c r="C7">
-        <v>855.4911033682752</v>
+        <v>16049.17774695493</v>
       </c>
       <c r="D7">
-        <v>0.6549899978055724</v>
+        <v>-1.103984600288291</v>
       </c>
       <c r="E7">
-        <v>-0.9938607199973984</v>
+        <v>-0.9022313220511786</v>
       </c>
       <c r="F7">
-        <v>0.2175921525563752</v>
+        <v>-0.4643843299429894</v>
       </c>
       <c r="G7">
-        <v>498.1378144627712</v>
+        <v>9450.444921169294</v>
       </c>
       <c r="H7">
-        <v>794.4572437927234</v>
+        <v>14594.12267572169</v>
       </c>
       <c r="I7">
-        <v>0.2531098611111111</v>
+        <v>-0.4346298915094339</v>
       </c>
       <c r="J7">
-        <v>0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>543.8563361247708</v>
+        <v>13096.83243182969</v>
       </c>
       <c r="C8">
-        <v>844.5154184422656</v>
+        <v>16600.89354018795</v>
       </c>
       <c r="D8">
-        <v>0.7354730976466748</v>
+        <v>-1.267921120846251</v>
       </c>
       <c r="E8">
-        <v>-0.9899996162769922</v>
+        <v>-0.8241688127776142</v>
       </c>
       <c r="F8">
-        <v>0.3486419273976805</v>
+        <v>-0.5425027674666711</v>
       </c>
       <c r="G8">
-        <v>477.9682555089853</v>
+        <v>9260.725232238105</v>
       </c>
       <c r="H8">
-        <v>789.2402424111424</v>
+        <v>14682.19751791288</v>
       </c>
       <c r="I8">
-        <v>0.3457022222222222</v>
+        <v>-0.5924911320754717</v>
       </c>
       <c r="J8">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>529.8956315347776</v>
+        <v>15161.94865259082</v>
       </c>
       <c r="C9">
-        <v>845.5871115692981</v>
+        <v>13621.75628507327</v>
       </c>
       <c r="D9">
-        <v>0.739033534199722</v>
+        <v>-1.261327979412641</v>
       </c>
       <c r="E9">
-        <v>-0.8970621738031206</v>
+        <v>-0.7491242690093767</v>
       </c>
       <c r="F9">
-        <v>0.4367967234226771</v>
+        <v>-0.702405496362746</v>
       </c>
       <c r="G9">
-        <v>458.3674596382987</v>
+        <v>9087.210490901913</v>
       </c>
       <c r="H9">
-        <v>782.1807089250443</v>
+        <v>14799.00236684555</v>
       </c>
       <c r="I9">
-        <v>0.4382945833333334</v>
+        <v>-0.7503523726415094</v>
       </c>
       <c r="J9">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>444.5471766143258</v>
+        <v>17961.66242318349</v>
       </c>
       <c r="C10">
-        <v>886.2202262218162</v>
+        <v>10951.71569129587</v>
       </c>
       <c r="D10">
-        <v>0.734804411958779</v>
+        <v>-1.254293903740085</v>
       </c>
       <c r="E10">
-        <v>-0.8630978611888864</v>
+        <v>-0.6404170523134933</v>
       </c>
       <c r="F10">
-        <v>0.4842116336515567</v>
+        <v>-0.8232151702922805</v>
       </c>
       <c r="G10">
-        <v>439.5033512183284</v>
+        <v>8934.215742085167</v>
       </c>
       <c r="H10">
-        <v>773.3391239243066</v>
+        <v>14941.63246545609</v>
       </c>
       <c r="I10">
-        <v>0.5308869444444445</v>
+        <v>-0.9082136132075472</v>
       </c>
       <c r="J10">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>442.8443454434942</v>
+        <v>17045.91120699071</v>
       </c>
       <c r="C11">
-        <v>945.8701038059204</v>
+        <v>10244.39926878547</v>
       </c>
       <c r="D11">
-        <v>0.7369973057073076</v>
+        <v>-1.264807445893986</v>
       </c>
       <c r="E11">
-        <v>-0.8179458722797567</v>
+        <v>-0.5082077804214526</v>
       </c>
       <c r="F11">
-        <v>0.6178200085147262</v>
+        <v>-0.8366096771638768</v>
       </c>
       <c r="G11">
-        <v>421.537543251831</v>
+        <v>8805.54573003764</v>
       </c>
       <c r="H11">
-        <v>762.7912352295675</v>
+        <v>15106.54082241485</v>
       </c>
       <c r="I11">
-        <v>0.6234793055555556</v>
+        <v>-1.066074853773585</v>
       </c>
       <c r="J11">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>380.4260411611479</v>
+        <v>16090.52571690658</v>
       </c>
       <c r="C12">
-        <v>932.0778702926377</v>
+        <v>8940.695004619734</v>
       </c>
       <c r="D12">
-        <v>0.7444351168736768</v>
+        <v>-1.256056691535046</v>
       </c>
       <c r="E12">
-        <v>-0.7625835952944677</v>
+        <v>-0.3482307423973592</v>
       </c>
       <c r="F12">
-        <v>0.6664600597646266</v>
+        <v>-0.9637046094478099</v>
       </c>
       <c r="G12">
-        <v>404.6239528022467</v>
+        <v>8704.400280192831</v>
       </c>
       <c r="H12">
-        <v>750.6274089438385</v>
+        <v>15289.62642034882</v>
       </c>
       <c r="I12">
-        <v>0.7160716666666668</v>
+        <v>-1.223936094339623</v>
       </c>
       <c r="J12">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>362.5273243391205</v>
+        <v>15852.59749615257</v>
       </c>
       <c r="C13">
-        <v>812.3891785546344</v>
+        <v>8978.685964914701</v>
       </c>
       <c r="D13">
-        <v>0.7474896960406802</v>
+        <v>-1.252444150787239</v>
       </c>
       <c r="E13">
-        <v>-0.6833058752395136</v>
+        <v>-0.2068860420085321</v>
       </c>
       <c r="F13">
-        <v>0.7367470976795184</v>
+        <v>-0.9853089957709454</v>
       </c>
       <c r="G13">
-        <v>388.907482352062</v>
+        <v>8633.294724427577</v>
       </c>
       <c r="H13">
-        <v>736.9518552660478</v>
+        <v>15486.3362018404</v>
       </c>
       <c r="I13">
-        <v>0.8086640277777779</v>
+        <v>-1.38179733490566</v>
       </c>
       <c r="J13">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>350.4543974908275</v>
+        <v>15571.27915106429</v>
       </c>
       <c r="C14">
-        <v>799.5219130186877</v>
+        <v>8526.246341633447</v>
       </c>
       <c r="D14">
-        <v>0.7407671495358317</v>
+        <v>-1.262471428076079</v>
       </c>
       <c r="E14">
-        <v>-0.6190665865388371</v>
+        <v>-0.04573032533159392</v>
       </c>
       <c r="F14">
-        <v>0.771300314808039</v>
+        <v>-1.035268577088888</v>
       </c>
       <c r="G14">
-        <v>374.5227783910895</v>
+        <v>8593.997348624347</v>
       </c>
       <c r="H14">
-        <v>721.8817356991417</v>
+        <v>15691.7782969673</v>
       </c>
       <c r="I14">
-        <v>0.901256388888889</v>
+        <v>-1.539658575471698</v>
       </c>
       <c r="J14">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>381.104780096239</v>
+        <v>15919.93959241216</v>
       </c>
       <c r="C15">
-        <v>754.6067020579331</v>
+        <v>8533.929862381625</v>
       </c>
       <c r="D15">
-        <v>0.7388231025408144</v>
+        <v>-1.257660242083929</v>
       </c>
       <c r="E15">
-        <v>-0.5412516973875019</v>
+        <v>0.1192960210027089</v>
       </c>
       <c r="F15">
-        <v>0.8520670763615493</v>
+        <v>-0.9900690902255307</v>
       </c>
       <c r="G15">
-        <v>361.5930778701111</v>
+        <v>8587.485418119206</v>
       </c>
       <c r="H15">
-        <v>705.5461593014912</v>
+        <v>15900.84367658871</v>
       </c>
       <c r="I15">
-        <v>0.9938487500000002</v>
+        <v>4.58566549114185</v>
       </c>
       <c r="J15">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>367.4204883758888</v>
+        <v>16572.69662723946</v>
       </c>
       <c r="C16">
-        <v>740.3373647202601</v>
+        <v>9355.056552242648</v>
       </c>
       <c r="D16">
-        <v>0.7379243319910769</v>
+        <v>-1.261573328318716</v>
       </c>
       <c r="E16">
-        <v>-0.4512969515201345</v>
+        <v>0.2830307408076522</v>
       </c>
       <c r="F16">
-        <v>0.8834308760007743</v>
+        <v>-0.9218753570973898</v>
       </c>
       <c r="G16">
-        <v>350.229152402575</v>
+        <v>8613.920874614963</v>
       </c>
       <c r="H16">
-        <v>688.0850765809396</v>
+        <v>16108.33320604746</v>
       </c>
       <c r="I16">
-        <v>1.086441111111111</v>
+        <v>4.427804250575813</v>
       </c>
       <c r="J16">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>326.0764201065366</v>
+        <v>17720.34976977659</v>
       </c>
       <c r="C17">
-        <v>678.8877740417231</v>
+        <v>8711.010996374291</v>
       </c>
       <c r="D17">
-        <v>0.7441822087825751</v>
+        <v>-1.264396857642935</v>
       </c>
       <c r="E17">
-        <v>-0.4236034240076321</v>
+        <v>0.4515480661358775</v>
       </c>
       <c r="F17">
-        <v>0.9083046433647683</v>
+        <v>-0.8944828153566821</v>
       </c>
       <c r="G17">
-        <v>340.5283592596027</v>
+        <v>8672.646308939931</v>
       </c>
       <c r="H17">
-        <v>669.6480805077467</v>
+        <v>16309.0869396578</v>
       </c>
       <c r="I17">
-        <v>1.179033472222222</v>
+        <v>4.269943010009775</v>
       </c>
       <c r="J17">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>337.6157997868204</v>
+        <v>15761.88589991856</v>
       </c>
       <c r="C18">
-        <v>721.7854551057036</v>
+        <v>6022.560264887346</v>
       </c>
       <c r="D18">
-        <v>0.7355799862993513</v>
+        <v>-1.26351604599382</v>
       </c>
       <c r="E18">
-        <v>-0.2911222223601023</v>
+        <v>0.5456494529397685</v>
       </c>
       <c r="F18">
-        <v>0.9349695598665757</v>
+        <v>-0.8192151281116231</v>
       </c>
       <c r="G18">
-        <v>332.5738072886444</v>
+        <v>8762.201309803582</v>
       </c>
       <c r="H18">
-        <v>650.3931249184188</v>
+        <v>16498.11244062384</v>
       </c>
       <c r="I18">
-        <v>1.271625833333333</v>
+        <v>4.112081769443737</v>
       </c>
       <c r="J18">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>369.1514413173643</v>
+        <v>13017.2137800063</v>
       </c>
       <c r="C19">
-        <v>656.3188721479992</v>
+        <v>5044.732653744967</v>
       </c>
       <c r="D19">
-        <v>0.7383908862127231</v>
+        <v>-1.254212585326852</v>
       </c>
       <c r="E19">
-        <v>-0.1853926467576011</v>
+        <v>0.6637113538723186</v>
       </c>
       <c r="F19">
-        <v>1.008726662231022</v>
+        <v>-0.7573403282051456</v>
       </c>
       <c r="G19">
-        <v>326.4336449015407</v>
+        <v>8880.358781980693</v>
       </c>
       <c r="H19">
-        <v>630.485171290141</v>
+        <v>16670.7089352692</v>
       </c>
       <c r="I19">
-        <v>1.364218194444444</v>
+        <v>3.954220528877699</v>
       </c>
       <c r="J19">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>366.1147680237187</v>
+        <v>11051.26745882542</v>
       </c>
       <c r="C20">
-        <v>673.5680824911342</v>
+        <v>4229.167576867729</v>
       </c>
       <c r="D20">
-        <v>0.7395940762339012</v>
+        <v>-1.267406594501431</v>
       </c>
       <c r="E20">
-        <v>-0.1316621042137142</v>
+        <v>0.8103204495583628</v>
       </c>
       <c r="F20">
-        <v>0.9883706883428144</v>
+        <v>-0.5863239854022321</v>
       </c>
       <c r="G20">
-        <v>322.1604762319565</v>
+        <v>9024.18033074654</v>
       </c>
       <c r="H20">
-        <v>610.0947754791973</v>
+        <v>16822.58421405328</v>
       </c>
       <c r="I20">
-        <v>1.456810555555555</v>
+        <v>3.796359288311661</v>
       </c>
       <c r="J20">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>402.6307283170586</v>
+        <v>10708.71333316091</v>
       </c>
       <c r="C21">
-        <v>658.9331213999516</v>
+        <v>3420.64042990885</v>
       </c>
       <c r="D21">
-        <v>0.7390854425737635</v>
+        <v>-1.259464458754869</v>
       </c>
       <c r="E21">
-        <v>-0.03130173974333096</v>
+        <v>0.8481850833184326</v>
       </c>
       <c r="F21">
-        <v>0.9776184559558262</v>
+        <v>-0.4601288947474932</v>
       </c>
       <c r="G21">
-        <v>319.7909104640951</v>
+        <v>9190.08933523739</v>
       </c>
       <c r="H21">
-        <v>589.3966265311043</v>
+        <v>16949.9613722254</v>
       </c>
       <c r="I21">
-        <v>1.549402916666666</v>
+        <v>3.638498047745624</v>
       </c>
       <c r="J21">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>400.2649022896355</v>
+        <v>10022.1724500789</v>
       </c>
       <c r="C22">
-        <v>669.9474704153558</v>
+        <v>3241.748011641984</v>
       </c>
       <c r="D22">
-        <v>0.7378240994067526</v>
+        <v>-1.266518002453102</v>
       </c>
       <c r="E22">
-        <v>0.1033021792638404</v>
+        <v>0.9350027896960958</v>
       </c>
       <c r="F22">
-        <v>1.001304080227221</v>
+        <v>-0.3526345483174602</v>
       </c>
       <c r="G22">
-        <v>319.3452481936934</v>
+        <v>9373.959893514097</v>
       </c>
       <c r="H22">
-        <v>568.5680500807944</v>
+        <v>17049.67273564082</v>
       </c>
       <c r="I22">
-        <v>1.641995277777777</v>
+        <v>3.480636807179586</v>
       </c>
       <c r="J22">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>430.9089361299987</v>
+        <v>9898.707130830213</v>
       </c>
       <c r="C23">
-        <v>710.8077865167179</v>
+        <v>3075.815156334306</v>
       </c>
       <c r="D23">
-        <v>0.6483816979249577</v>
+        <v>-1.113738210450429</v>
       </c>
       <c r="E23">
-        <v>0.1914706255645413</v>
+        <v>0.9977746801961302</v>
       </c>
       <c r="F23">
-        <v>1.007858052825816</v>
+        <v>-0.2294329303348157</v>
       </c>
       <c r="G23">
-        <v>320.6420487045565</v>
+        <v>9546.561800735131</v>
       </c>
       <c r="H23">
-        <v>550.3850787608494</v>
+        <v>17110.54283319161</v>
       </c>
       <c r="I23">
-        <v>1.723014027777777</v>
+        <v>3.342507481707888</v>
       </c>
       <c r="J23">
-        <v>0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>482.2264327116557</v>
+        <v>9920.036765611389</v>
       </c>
       <c r="C24">
-        <v>730.1441160128885</v>
+        <v>2712.142240320477</v>
       </c>
       <c r="D24">
-        <v>0.5575974434169566</v>
+        <v>-0.9466469604288766</v>
       </c>
       <c r="E24">
-        <v>0.2177514729026624</v>
+        <v>0.9947126410251648</v>
       </c>
       <c r="F24">
-        <v>0.9890666993569769</v>
+        <v>-0.1197167631546712</v>
       </c>
       <c r="G24">
-        <v>323.0112762324403</v>
+        <v>9700.281169038328</v>
       </c>
       <c r="H24">
-        <v>534.9407469228864</v>
+        <v>17141.84972434142</v>
       </c>
       <c r="I24">
-        <v>1.792458472222222</v>
+        <v>3.224111255292793</v>
       </c>
       <c r="J24">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>504.0464856489504</v>
+        <v>9700.240018750203</v>
       </c>
       <c r="C25">
-        <v>716.915897376944</v>
+        <v>3134.110630067607</v>
       </c>
       <c r="D25">
-        <v>0.4212317104640346</v>
+        <v>-0.7058864305223208</v>
       </c>
       <c r="E25">
-        <v>0.2809256517040892</v>
+        <v>1.005083927507582</v>
       </c>
       <c r="F25">
-        <v>0.9525296616072058</v>
+        <v>0.003504217976581306</v>
       </c>
       <c r="G25">
-        <v>325.5876598773133</v>
+        <v>9817.537066786716</v>
       </c>
       <c r="H25">
-        <v>523.5087152190758</v>
+        <v>17151.54753890359</v>
       </c>
       <c r="I25">
-        <v>1.844541805555555</v>
+        <v>3.135314085481473</v>
       </c>
       <c r="J25">
-        <v>0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>494.4299506521305</v>
+        <v>9824.01943605103</v>
       </c>
       <c r="C26">
-        <v>736.502085212545</v>
+        <v>2853.377078857182</v>
       </c>
       <c r="D26">
-        <v>0.2678095570810325</v>
+        <v>-0.4755953752751497</v>
       </c>
       <c r="E26">
-        <v>0.3196662561485613</v>
+        <v>1.002589847005404</v>
       </c>
       <c r="F26">
-        <v>0.9460417949446754</v>
+        <v>0.05267159931447236</v>
       </c>
       <c r="G26">
-        <v>327.6996859768263</v>
+        <v>9895.973020772295</v>
       </c>
       <c r="H26">
-        <v>515.9871128628637</v>
+        <v>17151.05506695318</v>
       </c>
       <c r="I26">
-        <v>1.879264027777777</v>
+        <v>3.076115972273926</v>
       </c>
       <c r="J26">
-        <v>0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>537.4330991775822</v>
+        <v>10119.19369639758</v>
       </c>
       <c r="C27">
-        <v>725.1017127726749</v>
+        <v>3011.081517454973</v>
       </c>
       <c r="D27">
-        <v>0.1318866802057879</v>
+        <v>-0.2366853944059141</v>
       </c>
       <c r="E27">
-        <v>0.3348324726106791</v>
+        <v>0.979475459518373</v>
       </c>
       <c r="F27">
-        <v>0.9452604029699496</v>
+        <v>0.07159898357163627</v>
       </c>
       <c r="G27">
-        <v>328.8856196451533</v>
+        <v>9935.107731573042</v>
       </c>
       <c r="H27">
-        <v>512.2652382818457</v>
+        <v>17148.48898782261</v>
       </c>
       <c r="I27">
-        <v>1.896625138888888</v>
+        <v>3.046516915670152</v>
       </c>
       <c r="J27">
-        <v>0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>472.0912944031824</v>
+        <v>9610.94018638122</v>
       </c>
       <c r="C28">
-        <v>697.7790058142465</v>
+        <v>2719.505397582398</v>
       </c>
       <c r="D28">
-        <v>-0.004782875886495622</v>
+        <v>-0.0006626868655443322</v>
       </c>
       <c r="E28">
-        <v>0.3219756084475727</v>
+        <v>1.024808339666055</v>
       </c>
       <c r="F28">
-        <v>0.9471052966783237</v>
+        <v>0.1038458440633921</v>
       </c>
       <c r="G28">
-        <v>328.8856196451533</v>
+        <v>9935.107731573042</v>
       </c>
       <c r="H28">
-        <v>512.2652382818457</v>
+        <v>17148.48898782261</v>
       </c>
       <c r="I28">
-        <v>1.896625138888888</v>
+        <v>3.046516915670152</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1192,1101 +1192,1101 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>516.9179965616481</v>
+        <v>10300.245596266</v>
       </c>
       <c r="C29">
-        <v>690.7458483867107</v>
+        <v>3220.328796418282</v>
       </c>
       <c r="D29">
-        <v>0.1354883628756496</v>
+        <v>-0.2395603491640019</v>
       </c>
       <c r="E29">
-        <v>0.3185121918493871</v>
+        <v>0.9921359555156024</v>
       </c>
       <c r="F29">
-        <v>0.902557171164534</v>
+        <v>0.1313032072666528</v>
       </c>
       <c r="G29">
-        <v>330.1359872251483</v>
+        <v>9974.149358152648</v>
       </c>
       <c r="H29">
-        <v>508.5645126803727</v>
+        <v>17144.76585129797</v>
       </c>
       <c r="I29">
-        <v>1.91398625</v>
+        <v>3.016917859066379</v>
       </c>
       <c r="J29">
-        <v>0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>505.9880584102912</v>
+        <v>10071.83678044404</v>
       </c>
       <c r="C30">
-        <v>700.0628878266039</v>
+        <v>2884.311779842006</v>
       </c>
       <c r="D30">
-        <v>0.2750979352838308</v>
+        <v>-0.475854907941499</v>
       </c>
       <c r="E30">
-        <v>0.3839111810482788</v>
+        <v>0.963676174050178</v>
       </c>
       <c r="F30">
-        <v>0.9346707341401257</v>
+        <v>0.1777095785955561</v>
       </c>
       <c r="G30">
-        <v>332.764836485375</v>
+        <v>10051.97803880161</v>
       </c>
       <c r="H30">
-        <v>501.2075902384133</v>
+        <v>17135.01198669503</v>
       </c>
       <c r="I30">
-        <v>1.948708472222222</v>
+        <v>2.957719745858832</v>
       </c>
       <c r="J30">
-        <v>0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>589.4149392598994</v>
+        <v>10227.0530906803</v>
       </c>
       <c r="C31">
-        <v>709.8811850325332</v>
+        <v>2899.66221805521</v>
       </c>
       <c r="D31">
-        <v>0.4076742862441612</v>
+        <v>-0.7080435660036419</v>
       </c>
       <c r="E31">
-        <v>0.387721038673277</v>
+        <v>0.9562925286553209</v>
       </c>
       <c r="F31">
-        <v>0.8843933330155609</v>
+        <v>0.2903445690066606</v>
       </c>
       <c r="G31">
-        <v>337.0888295986902</v>
+        <v>10167.65095162692</v>
       </c>
       <c r="H31">
-        <v>490.3157499385143</v>
+        <v>17113.49988771399</v>
       </c>
       <c r="I31">
-        <v>2.000791805555555</v>
+        <v>2.868922576047511</v>
       </c>
       <c r="J31">
-        <v>0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>589.5269549283751</v>
+        <v>7971.738404313546</v>
       </c>
       <c r="C32">
-        <v>731.5181064118095</v>
+        <v>3062.280303237596</v>
       </c>
       <c r="D32">
-        <v>0.5499488734080277</v>
+        <v>-0.9530863109162037</v>
       </c>
       <c r="E32">
-        <v>0.4713292719958417</v>
+        <v>0.9245547435843444</v>
       </c>
       <c r="F32">
-        <v>0.8955236866029604</v>
+        <v>0.3755378307842979</v>
       </c>
       <c r="G32">
-        <v>343.602371673272</v>
+        <v>10318.73024680737</v>
       </c>
       <c r="H32">
-        <v>476.1131306504164</v>
+        <v>17071.25285003347</v>
       </c>
       <c r="I32">
-        <v>2.07023625</v>
+        <v>2.750526349632417</v>
       </c>
       <c r="J32">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>661.4689277081867</v>
+        <v>5732.084921639204</v>
       </c>
       <c r="C33">
-        <v>797.7511631789791</v>
+        <v>3645.711674555216</v>
       </c>
       <c r="D33">
-        <v>0.6531736479612034</v>
+        <v>-1.108317433388347</v>
       </c>
       <c r="E33">
-        <v>0.5560529732981908</v>
+        <v>0.8674067892450138</v>
       </c>
       <c r="F33">
-        <v>0.8193885275380123</v>
+        <v>0.4910252886978394</v>
       </c>
       <c r="G33">
-        <v>352.3329334777305</v>
+        <v>10487.93348480269</v>
       </c>
       <c r="H33">
-        <v>460.1106487127467</v>
+        <v>17001.49002752694</v>
       </c>
       <c r="I33">
-        <v>2.151255</v>
+        <v>2.612397024160718</v>
       </c>
       <c r="J33">
-        <v>0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>627.8718248323819</v>
+        <v>4621.619325577746</v>
       </c>
       <c r="C34">
-        <v>795.8683410422115</v>
+        <v>4033.876069645337</v>
       </c>
       <c r="D34">
-        <v>0.7380532302853139</v>
+        <v>-1.265514514505948</v>
       </c>
       <c r="E34">
-        <v>0.6445488050269761</v>
+        <v>0.8080213513280042</v>
       </c>
       <c r="F34">
-        <v>0.8039402891556481</v>
+        <v>0.6502310878624789</v>
       </c>
       <c r="G34">
-        <v>363.7580963181438</v>
+        <v>10668.48905033041</v>
       </c>
       <c r="H34">
-        <v>442.6895733763702</v>
+        <v>16895.89445019476</v>
       </c>
       <c r="I34">
-        <v>2.243847361111111</v>
+        <v>2.454535783594681</v>
       </c>
       <c r="J34">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>580.9718073381439</v>
+        <v>4238.921047436238</v>
       </c>
       <c r="C35">
-        <v>816.6701765804823</v>
+        <v>4819.821212769827</v>
       </c>
       <c r="D35">
-        <v>0.8318236606906213</v>
+        <v>-1.418394819035818</v>
       </c>
       <c r="E35">
-        <v>0.7133631654217135</v>
+        <v>0.6938266447090725</v>
       </c>
       <c r="F35">
-        <v>0.7360168950188676</v>
+        <v>0.7511948092930857</v>
       </c>
       <c r="G35">
-        <v>378.3684375636557</v>
+        <v>10850.41292877681</v>
       </c>
       <c r="H35">
-        <v>424.3632443675454</v>
+        <v>16746.64407295146</v>
       </c>
       <c r="I35">
-        <v>2.348014027777777</v>
+        <v>2.276941443972039</v>
       </c>
       <c r="J35">
-        <v>0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>508.1151747559862</v>
+        <v>3772.162728879046</v>
       </c>
       <c r="C36">
-        <v>775.6758325441808</v>
+        <v>6758.764781329916</v>
       </c>
       <c r="D36">
-        <v>0.926662634735278</v>
+        <v>-1.577393463742479</v>
       </c>
       <c r="E36">
-        <v>0.7907793016519749</v>
+        <v>0.4865509121934237</v>
       </c>
       <c r="F36">
-        <v>0.6469855785252259</v>
+        <v>0.8867631542134918</v>
       </c>
       <c r="G36">
-        <v>396.6314179044772</v>
+        <v>11020.07462161258</v>
       </c>
       <c r="H36">
-        <v>405.7989935258354</v>
+        <v>16547.70861767716</v>
       </c>
       <c r="I36">
-        <v>2.463754999999999</v>
+        <v>2.079614005292794</v>
       </c>
       <c r="J36">
-        <v>0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>480.4760089305031</v>
+        <v>3944.320757640164</v>
       </c>
       <c r="C37">
-        <v>721.5472565860216</v>
+        <v>9173.096938257886</v>
       </c>
       <c r="D37">
-        <v>1.015473811559289</v>
+        <v>-1.730239296965919</v>
       </c>
       <c r="E37">
-        <v>0.8575237598211138</v>
+        <v>0.2779599841960374</v>
       </c>
       <c r="F37">
-        <v>0.5223477286600505</v>
+        <v>0.9755696470949248</v>
       </c>
       <c r="G37">
-        <v>418.9445412522477</v>
+        <v>11160.17961621404</v>
       </c>
       <c r="H37">
-        <v>387.834893475552</v>
+        <v>16296.53774490532</v>
       </c>
       <c r="I37">
-        <v>2.591069583333333</v>
+        <v>1.862554651519209</v>
       </c>
       <c r="J37">
-        <v>1.018516666666667</v>
+        <v>-1.736474830188679</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>494.208570895615</v>
+        <v>3860.404426006457</v>
       </c>
       <c r="C38">
-        <v>682.9087249001412</v>
+        <v>8439.877717900998</v>
       </c>
       <c r="D38">
-        <v>1.119767546405651</v>
+        <v>-1.896511617033404</v>
       </c>
       <c r="E38">
-        <v>0.9214488283467462</v>
+        <v>0.05892510318504346</v>
       </c>
       <c r="F38">
-        <v>0.3868938758388468</v>
+        <v>1.001310179710243</v>
       </c>
       <c r="G38">
-        <v>445.5773851054563</v>
+        <v>11250.42562647631</v>
       </c>
       <c r="H38">
-        <v>371.4869844872253</v>
+        <v>15996.0469461581</v>
       </c>
       <c r="I38">
-        <v>2.729958472222222</v>
+        <v>1.62576219868902</v>
       </c>
       <c r="J38">
-        <v>1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>493.5604908937611</v>
+        <v>4514.970002277299</v>
       </c>
       <c r="C39">
-        <v>674.7924042157364</v>
+        <v>8743.513144173992</v>
       </c>
       <c r="D39">
-        <v>1.195394198834214</v>
+        <v>-2.051941380597188</v>
       </c>
       <c r="E39">
-        <v>0.9830939544996158</v>
+        <v>-0.2023270323561422</v>
       </c>
       <c r="F39">
-        <v>0.2825104783114892</v>
+        <v>0.9566051114555252</v>
       </c>
       <c r="G39">
-        <v>476.6036426977353</v>
+        <v>11269.09888548996</v>
       </c>
       <c r="H39">
-        <v>357.9416814187456</v>
+        <v>15656.6645426362</v>
       </c>
       <c r="I39">
-        <v>2.880421666666666</v>
+        <v>1.369236646802227</v>
       </c>
       <c r="J39">
-        <v>1.203705555555555</v>
+        <v>-2.052204415094339</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>478.130164631286</v>
+        <v>5142.870964383186</v>
       </c>
       <c r="C40">
-        <v>692.7198801411374</v>
+        <v>10411.00317729236</v>
       </c>
       <c r="D40">
-        <v>1.295285359233103</v>
+        <v>-2.215329104688273</v>
       </c>
       <c r="E40">
-        <v>1.031681142751745</v>
+        <v>-0.4320155118441875</v>
       </c>
       <c r="F40">
-        <v>0.06616630400519842</v>
+        <v>0.880354561977979</v>
       </c>
       <c r="G40">
-        <v>511.8256212181269</v>
+        <v>11195.81817255408</v>
       </c>
       <c r="H40">
-        <v>348.5276993653193</v>
+        <v>15298.0330947521</v>
       </c>
       <c r="I40">
-        <v>3.042458472222222</v>
+        <v>1.092979179821095</v>
       </c>
       <c r="J40">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>529.5661962715266</v>
+        <v>6687.6117991241</v>
       </c>
       <c r="C41">
-        <v>671.5019436053001</v>
+        <v>12449.54719170457</v>
       </c>
       <c r="D41">
-        <v>1.295668181740162</v>
+        <v>-2.213261114329427</v>
       </c>
       <c r="E41">
-        <v>0.9790699826254639</v>
+        <v>-0.7274697362250911</v>
       </c>
       <c r="F41">
-        <v>-0.06904151229787373</v>
+        <v>0.7368176066341026</v>
       </c>
       <c r="G41">
-        <v>548.1049628839511</v>
+        <v>11027.49682994417</v>
       </c>
       <c r="H41">
-        <v>344.9193483170488</v>
+        <v>14972.98770727239</v>
       </c>
       <c r="I41">
-        <v>3.204495277777777</v>
+        <v>0.8167217128399634</v>
       </c>
       <c r="J41">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>596.3460885650192</v>
+        <v>10276.97359737349</v>
       </c>
       <c r="C42">
-        <v>703.9933449758984</v>
+        <v>17274.07597247502</v>
       </c>
       <c r="D42">
-        <v>1.292619867963944</v>
+        <v>-2.207742423081051</v>
       </c>
       <c r="E42">
-        <v>0.9871548389529089</v>
+        <v>-0.8636881605100919</v>
       </c>
       <c r="F42">
-        <v>-0.2401181610137226</v>
+        <v>0.497071718283392</v>
       </c>
       <c r="G42">
-        <v>584.4912023176025</v>
+        <v>10776.89934660117</v>
       </c>
       <c r="H42">
-        <v>347.2111617628054</v>
+        <v>14706.17788803405</v>
       </c>
       <c r="I42">
-        <v>3.366532083333333</v>
+        <v>0.5404642458588313</v>
       </c>
       <c r="J42">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>657.0620634983668</v>
+        <v>9676.810893839229</v>
       </c>
       <c r="C43">
-        <v>692.5028849806672</v>
+        <v>15398.38761236815</v>
       </c>
       <c r="D43">
-        <v>1.299855330149396</v>
+        <v>-2.210489531488282</v>
       </c>
       <c r="E43">
-        <v>0.9270692391808547</v>
+        <v>-0.9795718055025097</v>
       </c>
       <c r="F43">
-        <v>-0.354003993663124</v>
+        <v>0.2804639762269652</v>
       </c>
       <c r="G43">
-        <v>620.0310735772265</v>
+        <v>10463.02954435283</v>
       </c>
       <c r="H43">
-        <v>355.3430975620182</v>
+        <v>14517.83690593927</v>
       </c>
       <c r="I43">
-        <v>3.528568888888889</v>
+        <v>0.2642067788776993</v>
       </c>
       <c r="J43">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>699.2718439666678</v>
+        <v>9925.524414747742</v>
       </c>
       <c r="C44">
-        <v>731.0956488525125</v>
+        <v>14657.61612720665</v>
       </c>
       <c r="D44">
-        <v>1.292228141419071</v>
+        <v>-2.209838576218992</v>
       </c>
       <c r="E44">
-        <v>0.8675597895432923</v>
+        <v>-0.991977405180869</v>
       </c>
       <c r="F44">
-        <v>-0.5411766105352441</v>
+        <v>-0.002864981505187852</v>
       </c>
       <c r="G44">
-        <v>653.7934843219539</v>
+        <v>10109.68944115823</v>
       </c>
       <c r="H44">
-        <v>369.1021109604229</v>
+        <v>14422.24742025041</v>
       </c>
       <c r="I44">
-        <v>3.690605694444444</v>
+        <v>-0.01205068810343279</v>
       </c>
       <c r="J44">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>605.6524202326688</v>
+        <v>11073.11751149819</v>
       </c>
       <c r="C45">
-        <v>810.2340409996053</v>
+        <v>15199.78379297268</v>
       </c>
       <c r="D45">
-        <v>1.295302465602247</v>
+        <v>-2.216609822881888</v>
       </c>
       <c r="E45">
-        <v>0.7592939345284004</v>
+        <v>-0.9460282960530862</v>
       </c>
       <c r="F45">
-        <v>-0.6377218764273715</v>
+        <v>-0.2588501796188393</v>
       </c>
       <c r="G45">
-        <v>684.8939090614122</v>
+        <v>9743.67424771191</v>
       </c>
       <c r="H45">
-        <v>388.1277360491934</v>
+        <v>14426.65836870778</v>
       </c>
       <c r="I45">
-        <v>3.8526425</v>
+        <v>-0.2883081550845649</v>
       </c>
       <c r="J45">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>563.5882728049681</v>
+        <v>12458.74963263846</v>
       </c>
       <c r="C46">
-        <v>911.7266337561584</v>
+        <v>17027.33858049327</v>
       </c>
       <c r="D46">
-        <v>1.297023278512991</v>
+        <v>-2.212157548930295</v>
       </c>
       <c r="E46">
-        <v>0.6408104384626531</v>
+        <v>-0.8625124751237409</v>
       </c>
       <c r="F46">
-        <v>-0.7811117963619882</v>
+        <v>-0.5124070987360499</v>
       </c>
       <c r="G46">
-        <v>712.5175624222626</v>
+        <v>9392.740378123501</v>
       </c>
       <c r="H46">
-        <v>411.9215294414362</v>
+        <v>14530.73525122999</v>
       </c>
       <c r="I46">
-        <v>4.014679305555555</v>
+        <v>-0.5645656220656969</v>
       </c>
       <c r="J46">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>494.101238590717</v>
+        <v>16343.67512520143</v>
       </c>
       <c r="C47">
-        <v>839.0855028098421</v>
+        <v>12487.69823376124</v>
       </c>
       <c r="D47">
-        <v>1.290922532142438</v>
+        <v>-2.201882070497095</v>
       </c>
       <c r="E47">
-        <v>0.4996067059604617</v>
+        <v>-0.65140499822751</v>
       </c>
       <c r="F47">
-        <v>-0.8324443145401091</v>
+        <v>-0.7225106463710731</v>
       </c>
       <c r="G47">
-        <v>735.9407453262721</v>
+        <v>9083.500568650388</v>
       </c>
       <c r="H47">
-        <v>439.8601287556194</v>
+        <v>14726.58549640949</v>
       </c>
       <c r="I47">
-        <v>4.17671611111111</v>
+        <v>-0.840823089046829</v>
       </c>
       <c r="J47">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>469.5700061901359</v>
+        <v>16542.68729715376</v>
       </c>
       <c r="C48">
-        <v>813.8873163487182</v>
+        <v>9993.277296477041</v>
       </c>
       <c r="D48">
-        <v>1.294933338000585</v>
+        <v>-2.202900236862695</v>
       </c>
       <c r="E48">
-        <v>0.3909126539297137</v>
+        <v>-0.4455670155629369</v>
       </c>
       <c r="F48">
-        <v>-0.9168247331253765</v>
+        <v>-0.9181766123558097</v>
       </c>
       <c r="G48">
-        <v>754.5498048414597</v>
+        <v>8839.405726152736</v>
       </c>
       <c r="H48">
-        <v>471.21158379288</v>
+        <v>14999.35698715932</v>
       </c>
       <c r="I48">
-        <v>4.338752916666666</v>
+        <v>-1.117080556027961</v>
       </c>
       <c r="J48">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>515.6259050775727</v>
+        <v>15666.67717751353</v>
       </c>
       <c r="C49">
-        <v>769.0465538047456</v>
+        <v>8870.702485939508</v>
       </c>
       <c r="D49">
-        <v>1.295786468777717</v>
+        <v>-2.211153871684875</v>
       </c>
       <c r="E49">
-        <v>0.2256525963769725</v>
+        <v>-0.1487320013972608</v>
       </c>
       <c r="F49">
-        <v>-0.9695609841223929</v>
+        <v>-0.9527860110252756</v>
       </c>
       <c r="G49">
-        <v>767.85721098611</v>
+        <v>8678.966550873864</v>
       </c>
       <c r="H49">
-        <v>505.1545325553916</v>
+        <v>15328.36435688783</v>
       </c>
       <c r="I49">
-        <v>4.500789722222221</v>
+        <v>-1.393338023009093</v>
       </c>
       <c r="J49">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>538.2451194175812</v>
+        <v>15779.53945024297</v>
       </c>
       <c r="C50">
-        <v>755.8741079443449</v>
+        <v>8630.748916241819</v>
       </c>
       <c r="D50">
-        <v>1.29837792975984</v>
+        <v>-2.210727011230863</v>
       </c>
       <c r="E50">
-        <v>0.04544550176674395</v>
+        <v>0.09969901786093742</v>
       </c>
       <c r="F50">
-        <v>-1.021300698198611</v>
+        <v>-0.9618380512734589</v>
       </c>
       <c r="G50">
-        <v>775.5143292970421</v>
+        <v>8614.349795091224</v>
       </c>
       <c r="H50">
-        <v>540.7997197223227</v>
+        <v>15688.65764460211</v>
       </c>
       <c r="I50">
-        <v>4.662826527777776</v>
+        <v>4.613589817189361</v>
       </c>
       <c r="J50">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>572.3505647282949</v>
+        <v>17129.55854244643</v>
       </c>
       <c r="C51">
-        <v>761.3725246724711</v>
+        <v>9545.092828922683</v>
       </c>
       <c r="D51">
-        <v>1.295471998597132</v>
+        <v>-2.203222291177833</v>
       </c>
       <c r="E51">
-        <v>-0.1182133372164785</v>
+        <v>0.3618855910874761</v>
       </c>
       <c r="F51">
-        <v>-1.004459249447559</v>
+        <v>-0.9828025542211118</v>
       </c>
       <c r="G51">
-        <v>777.3205545396349</v>
+        <v>8650.455609028188</v>
       </c>
       <c r="H51">
-        <v>577.2132938309733</v>
+        <v>16052.91435147212</v>
       </c>
       <c r="I51">
-        <v>-1.458321973846255</v>
+        <v>4.337332350208229</v>
       </c>
       <c r="J51">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>641.2097351460583</v>
+        <v>14235.91797726015</v>
       </c>
       <c r="C52">
-        <v>774.5890367501692</v>
+        <v>5474.432983306364</v>
       </c>
       <c r="D52">
-        <v>1.299600261313621</v>
+        <v>-2.206270105482852</v>
       </c>
       <c r="E52">
-        <v>-0.262271328870551</v>
+        <v>0.6109108796764909</v>
       </c>
       <c r="F52">
-        <v>-0.9264606356076894</v>
+        <v>-0.8413349298656724</v>
       </c>
       <c r="G52">
-        <v>773.2285662698448</v>
+        <v>8784.54594262196</v>
       </c>
       <c r="H52">
-        <v>613.4412728112181</v>
+        <v>16393.51141654543</v>
       </c>
       <c r="I52">
-        <v>-1.296285168290699</v>
+        <v>4.061074883227096</v>
       </c>
       <c r="J52">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>536.9051885920563</v>
+        <v>11131.85419675508</v>
       </c>
       <c r="C53">
-        <v>840.21833796575</v>
+        <v>4136.662645922213</v>
       </c>
       <c r="D53">
-        <v>1.301395588376648</v>
+        <v>-2.213265578079659</v>
       </c>
       <c r="E53">
-        <v>-0.424104192718442</v>
+        <v>0.8095061980075786</v>
       </c>
       <c r="F53">
-        <v>-0.9324305900271095</v>
+        <v>-0.6051292958280514</v>
       </c>
       <c r="G53">
-        <v>763.3455685602215</v>
+        <v>9006.452182946176</v>
       </c>
       <c r="H53">
-        <v>648.5345369122497</v>
+        <v>16684.61998530459</v>
       </c>
       <c r="I53">
-        <v>-1.134248362735144</v>
+        <v>3.784817416245964</v>
       </c>
       <c r="J53">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>477.4787654829419</v>
+        <v>9878.921202295793</v>
       </c>
       <c r="C54">
-        <v>918.2005317556079</v>
+        <v>3478.832750301651</v>
       </c>
       <c r="D54">
-        <v>1.289457500546108</v>
+        <v>-2.21115543589876</v>
       </c>
       <c r="E54">
-        <v>-0.5983780791543122</v>
+        <v>0.9388920186821963</v>
       </c>
       <c r="F54">
-        <v>-0.8426368492049313</v>
+        <v>-0.3293262520390857</v>
       </c>
       <c r="G54">
-        <v>747.9304814109259</v>
+        <v>9299.346281301676</v>
       </c>
       <c r="H54">
-        <v>681.5736942437069</v>
+        <v>16904.16411628594</v>
       </c>
       <c r="I54">
-        <v>-0.9722115571795881</v>
+        <v>3.508559949264832</v>
       </c>
       <c r="J54">
-        <v>1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>421.1351480889158</v>
+        <v>9703.584717078198</v>
       </c>
       <c r="C55">
-        <v>1021.652699841764</v>
+        <v>3142.00059409569</v>
       </c>
       <c r="D55">
-        <v>1.213504801464858</v>
+        <v>-2.045845305045597</v>
       </c>
       <c r="E55">
-        <v>-0.6837266551046559</v>
+        <v>0.9750775706065357</v>
       </c>
       <c r="F55">
-        <v>-0.7588064063959987</v>
+        <v>-0.1392317310561462</v>
       </c>
       <c r="G55">
-        <v>728.8545490310266</v>
+        <v>9616.611660376753</v>
       </c>
       <c r="H55">
-        <v>709.541759947951</v>
+        <v>17026.11404725288</v>
       </c>
       <c r="I55">
-        <v>-0.8217483627351436</v>
+        <v>3.252034397378039</v>
       </c>
       <c r="J55">
-        <v>1.203705555555555</v>
+        <v>-2.052204415094339</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>372.8369299223081</v>
+        <v>9812.969130392523</v>
       </c>
       <c r="C56">
-        <v>955.1065623984977</v>
+        <v>3231.598509257957</v>
       </c>
       <c r="D56">
-        <v>1.111719384848776</v>
+        <v>-1.90382353720998</v>
       </c>
       <c r="E56">
-        <v>-0.7900358702639303</v>
+        <v>0.9522850893972851</v>
       </c>
       <c r="F56">
-        <v>-0.6404981209719319</v>
+        <v>0.1259735927062275</v>
       </c>
       <c r="G56">
-        <v>707.5751159960563</v>
+        <v>9928.450140728344</v>
       </c>
       <c r="H56">
-        <v>732.4273062536483</v>
+        <v>17060.69474522169</v>
       </c>
       <c r="I56">
-        <v>-0.6828594738462548</v>
+        <v>3.015241944547851</v>
       </c>
       <c r="J56">
-        <v>1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>384.6269721532087</v>
+        <v>8758.00574937157</v>
       </c>
       <c r="C57">
-        <v>913.6107997067056</v>
+        <v>3306.029975841979</v>
       </c>
       <c r="D57">
-        <v>1.019151036722641</v>
+        <v>-1.738166763309721</v>
       </c>
       <c r="E57">
-        <v>-0.832127093865232</v>
+        <v>0.9110727748553924</v>
       </c>
       <c r="F57">
-        <v>-0.5603894047957857</v>
+        <v>0.3381556333581001</v>
       </c>
       <c r="G57">
-        <v>685.3524861037874</v>
+        <v>10213.76173509978</v>
       </c>
       <c r="H57">
-        <v>750.5032318128183</v>
+        <v>17024.45235348946</v>
       </c>
       <c r="I57">
-        <v>-0.5555448905129214</v>
+        <v>2.798182590774266</v>
       </c>
       <c r="J57">
-        <v>1.018516666666667</v>
+        <v>-1.736474830188679</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>364.5547493660559</v>
+        <v>6258.052804150619</v>
       </c>
       <c r="C58">
-        <v>862.0755370821304</v>
+        <v>3861.758042029795</v>
       </c>
       <c r="D58">
-        <v>0.9273789169689783</v>
+        <v>-1.582627599933039</v>
       </c>
       <c r="E58">
-        <v>-0.8842893550203034</v>
+        <v>0.8814227720656088</v>
       </c>
       <c r="F58">
-        <v>-0.4190606022418407</v>
+        <v>0.4965900399531495</v>
       </c>
       <c r="G58">
-        <v>663.2271515240086</v>
+        <v>10459.95393409112</v>
       </c>
       <c r="H58">
-        <v>764.2377660231949</v>
+        <v>16936.41936798462</v>
       </c>
       <c r="I58">
-        <v>-0.4398039182906992</v>
+        <v>2.60085515209502</v>
       </c>
       <c r="J58">
-        <v>0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>372.3750827833709</v>
+        <v>4755.444251390917</v>
       </c>
       <c r="C59">
-        <v>839.2408076405717</v>
+        <v>4234.192980202756</v>
       </c>
       <c r="D59">
-        <v>0.8371511892344413</v>
+        <v>-1.418781859379532</v>
       </c>
       <c r="E59">
-        <v>-0.9703073824577426</v>
+        <v>0.800661692403958</v>
       </c>
       <c r="F59">
-        <v>-0.3457151521204373</v>
+        <v>0.6895075486937113</v>
       </c>
       <c r="G59">
-        <v>642.0200773498328</v>
+        <v>10661.69422842706</v>
       </c>
       <c r="H59">
-        <v>774.2165641081851</v>
+        <v>16815.2879257514</v>
       </c>
       <c r="I59">
-        <v>-0.3356372516240325</v>
+        <v>2.423260812472379</v>
       </c>
       <c r="J59">
-        <v>0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>380.3635036526121</v>
+        <v>4440.666122252442</v>
       </c>
       <c r="C60">
-        <v>811.4950491712056</v>
+        <v>4964.659532457837</v>
       </c>
       <c r="D60">
-        <v>0.748525118611173</v>
+        <v>-1.266436780378484</v>
       </c>
       <c r="E60">
-        <v>-0.965703028034259</v>
+        <v>0.6744424172478811</v>
       </c>
       <c r="F60">
-        <v>-0.2597601586723564</v>
+        <v>0.7861419901272502</v>
       </c>
       <c r="G60">
-        <v>622.3492214893728</v>
+        <v>10819.17686124069</v>
       </c>
       <c r="H60">
-        <v>781.0784619158378</v>
+        <v>16677.62907729901</v>
       </c>
       <c r="I60">
-        <v>-0.2430448905129214</v>
+        <v>2.265399571906341</v>
       </c>
       <c r="J60">
-        <v>0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>393.0487921977769</v>
+        <v>3899.247426468714</v>
       </c>
       <c r="C61">
-        <v>786.6782728608364</v>
+        <v>6734.641939557086</v>
       </c>
       <c r="D61">
-        <v>0.6404990212407624</v>
+        <v>-1.11030841617262</v>
       </c>
       <c r="E61">
-        <v>-1.022448429749168</v>
+        <v>0.5387097589431338</v>
       </c>
       <c r="F61">
-        <v>-0.1827515461769537</v>
+        <v>0.8762471898368031</v>
       </c>
       <c r="G61">
-        <v>604.6558257070924</v>
+        <v>10936.32489010645</v>
       </c>
       <c r="H61">
-        <v>785.465474940493</v>
+        <v>16537.01283895846</v>
       </c>
       <c r="I61">
-        <v>-0.1620261405129214</v>
+        <v>2.127270246434643</v>
       </c>
       <c r="J61">
-        <v>0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>417.2922997379644</v>
+        <v>3921.420500202955</v>
       </c>
       <c r="C62">
-        <v>789.864633120324</v>
+        <v>8471.20540632643</v>
       </c>
       <c r="D62">
-        <v>0.5521300267142719</v>
+        <v>-0.9337909109225926</v>
       </c>
       <c r="E62">
-        <v>-1.003029958990766</v>
+        <v>0.4374262632673709</v>
       </c>
       <c r="F62">
-        <v>-0.0703502032005504</v>
+        <v>0.8795927280402148</v>
       </c>
       <c r="G62">
-        <v>589.2354748302299</v>
+        <v>11019.18554541486</v>
       </c>
       <c r="H62">
-        <v>787.986070868929</v>
+        <v>16403.80669260304</v>
       </c>
       <c r="I62">
-        <v>-0.09258169606847697</v>
+        <v>2.008874020019548</v>
       </c>
       <c r="J62">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>395.5120781722247</v>
+        <v>3826.91738903809</v>
       </c>
       <c r="C63">
-        <v>791.2287443125498</v>
+        <v>9571.961925215059</v>
       </c>
       <c r="D63">
-        <v>0.4156250653834639</v>
+        <v>-0.7211867134882732</v>
       </c>
       <c r="E63">
-        <v>-1.016316174122724</v>
+        <v>0.3389939393618219</v>
       </c>
       <c r="F63">
-        <v>-0.05618187634786153</v>
+        <v>0.978007396565048</v>
       </c>
       <c r="G63">
-        <v>577.5669118409522</v>
+        <v>11069.09526417832</v>
       </c>
       <c r="H63">
-        <v>789.0694633775604</v>
+        <v>16297.26086613848</v>
       </c>
       <c r="I63">
-        <v>-0.04049836273514363</v>
+        <v>1.920076850208227</v>
       </c>
       <c r="J63">
-        <v>0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>409.6774979738238</v>
+        <v>4161.774342267261</v>
       </c>
       <c r="C64">
-        <v>788.6885890910238</v>
+        <v>9090.412029941281</v>
       </c>
       <c r="D64">
-        <v>0.2722255951389353</v>
+        <v>-0.4623618379759246</v>
       </c>
       <c r="E64">
-        <v>-0.9996389586407264</v>
+        <v>0.3116418826596415</v>
       </c>
       <c r="F64">
-        <v>-0.001291069288146485</v>
+        <v>0.9761113147147961</v>
       </c>
       <c r="G64">
-        <v>569.7608176738861</v>
+        <v>11095.93829148606</v>
       </c>
       <c r="H64">
-        <v>789.3857703564522</v>
+        <v>16223.55948697089</v>
       </c>
       <c r="I64">
-        <v>-0.005776140512921406</v>
+        <v>1.86087873700068</v>
       </c>
       <c r="J64">
-        <v>0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>424.7956345910185</v>
+        <v>3690.615269194873</v>
       </c>
       <c r="C65">
-        <v>808.4554500286148</v>
+        <v>9244.817410316697</v>
       </c>
       <c r="D65">
-        <v>0.1352484162711743</v>
+        <v>-0.2382015251713322</v>
       </c>
       <c r="E65">
-        <v>-1.005335291526647</v>
+        <v>0.2389963489292774</v>
       </c>
       <c r="F65">
-        <v>-0.009793122023506086</v>
+        <v>0.9817273064916444</v>
       </c>
       <c r="G65">
-        <v>565.8546328373753</v>
+        <v>11107.15607734472</v>
       </c>
       <c r="H65">
-        <v>789.4083332798662</v>
+        <v>16185.97928431055</v>
       </c>
       <c r="I65">
-        <v>0.01158497059818971</v>
+        <v>1.831279680396907</v>
       </c>
       <c r="J65">
-        <v>0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>443.7698743742454</v>
+        <v>4061.31743214964</v>
       </c>
       <c r="C66">
-        <v>799.9752206633891</v>
+        <v>9324.850496937745</v>
       </c>
       <c r="D66">
-        <v>0.00345590380541127</v>
+        <v>-0.001885907662624696</v>
       </c>
       <c r="E66">
-        <v>-1.005991961176846</v>
+        <v>0.2343812615023725</v>
       </c>
       <c r="F66">
-        <v>0.01257605567221426</v>
+        <v>0.9645610369412521</v>
       </c>
       <c r="G66">
-        <v>565.8546328373753</v>
+        <v>11107.15607734472</v>
       </c>
       <c r="H66">
-        <v>789.4083332798662</v>
+        <v>16185.97928431055</v>
       </c>
       <c r="I66">
-        <v>0.01158497059818971</v>
+        <v>1.831279680396907</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2294,463 +2294,463 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>426.0100990870473</v>
+        <v>3815.202335261184</v>
       </c>
       <c r="C67">
-        <v>822.9014300360665</v>
+        <v>9267.306300780312</v>
       </c>
       <c r="D67">
-        <v>0.1356739833331784</v>
+        <v>-0.2412297932429479</v>
       </c>
       <c r="E67">
-        <v>-0.9972805489211629</v>
+        <v>0.1840133626526003</v>
       </c>
       <c r="F67">
-        <v>0.02561533060428632</v>
+        <v>1.013857577352812</v>
       </c>
       <c r="G67">
-        <v>561.948644966365</v>
+        <v>11117.25677345564</v>
       </c>
       <c r="H67">
-        <v>789.3630805007238</v>
+        <v>16148.08355513645</v>
       </c>
       <c r="I67">
-        <v>0.02894608170930082</v>
+        <v>1.801680623793133</v>
       </c>
       <c r="J67">
-        <v>0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>440.4025660066145</v>
+        <v>4088.248851488899</v>
       </c>
       <c r="C68">
-        <v>759.9892042891835</v>
+        <v>8494.310378047563</v>
       </c>
       <c r="D68">
-        <v>0.2797224290694711</v>
+        <v>-0.4657096979063025</v>
       </c>
       <c r="E68">
-        <v>-0.9768224207657336</v>
+        <v>0.1879844237784406</v>
       </c>
       <c r="F68">
-        <v>0.05323514715173086</v>
+        <v>0.9835069708148662</v>
       </c>
       <c r="G68">
-        <v>554.1394176895876</v>
+        <v>11135.20628895052</v>
       </c>
       <c r="H68">
-        <v>789.1369708157564</v>
+        <v>16071.72744012429</v>
       </c>
       <c r="I68">
-        <v>0.06366830393152303</v>
+        <v>1.742482510585586</v>
       </c>
       <c r="J68">
-        <v>0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>459.6571117730945</v>
+        <v>4028.933664135237</v>
       </c>
       <c r="C69">
-        <v>795.0093273647307</v>
+        <v>8737.157526664796</v>
       </c>
       <c r="D69">
-        <v>0.4226725973205416</v>
+        <v>-0.7102008383304422</v>
       </c>
       <c r="E69">
-        <v>-1.003375931228574</v>
+        <v>0.09704668820702099</v>
       </c>
       <c r="F69">
-        <v>0.1163761964290766</v>
+        <v>1.045555712571601</v>
       </c>
       <c r="G69">
-        <v>542.4444115397948</v>
+        <v>11155.30715154031</v>
       </c>
       <c r="H69">
-        <v>788.3913618573818</v>
+        <v>15955.80096132325</v>
       </c>
       <c r="I69">
-        <v>0.1157516372648564</v>
+        <v>1.653685340774265</v>
       </c>
       <c r="J69">
-        <v>0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>462.4432772549898</v>
+        <v>4280.37222402562</v>
       </c>
       <c r="C70">
-        <v>803.4298931256626</v>
+        <v>8830.022175406501</v>
       </c>
       <c r="D70">
-        <v>0.5521955502009018</v>
+        <v>-0.9501619204136555</v>
       </c>
       <c r="E70">
-        <v>-0.9698907512118267</v>
+        <v>-0.04473697787768864</v>
       </c>
       <c r="F70">
-        <v>0.1895280483306678</v>
+        <v>1.009663958531268</v>
       </c>
       <c r="G70">
-        <v>526.9239700425779</v>
+        <v>11168.29548076682</v>
       </c>
       <c r="H70">
-        <v>786.5867786003755</v>
+        <v>15799.4645646368</v>
       </c>
       <c r="I70">
-        <v>0.1851960817093008</v>
+        <v>1.535289114359171</v>
       </c>
       <c r="J70">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>487.684962492444</v>
+        <v>4385.181533426606</v>
       </c>
       <c r="C71">
-        <v>838.1095909949663</v>
+        <v>8503.104542467809</v>
       </c>
       <c r="D71">
-        <v>0.559571739635244</v>
+        <v>-0.9488142045946842</v>
       </c>
       <c r="E71">
-        <v>-0.9853208626416845</v>
+        <v>-0.1849750317465106</v>
       </c>
       <c r="F71">
-        <v>0.2451053049700327</v>
+        <v>0.9748479694775095</v>
       </c>
       <c r="G71">
-        <v>511.5661549928316</v>
+        <v>11162.72645719045</v>
       </c>
       <c r="H71">
-        <v>783.7096025720822</v>
+        <v>15642.68844527736</v>
       </c>
       <c r="I71">
-        <v>0.2546405261537453</v>
+        <v>1.416892887944076</v>
       </c>
       <c r="J71">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>519.0823615921394</v>
+        <v>4647.055506119845</v>
       </c>
       <c r="C72">
-        <v>826.3059680649224</v>
+        <v>9501.113965496679</v>
       </c>
       <c r="D72">
-        <v>0.5525503655228351</v>
+        <v>-0.9498329559687003</v>
       </c>
       <c r="E72">
-        <v>-0.9454776785415591</v>
+        <v>-0.2701647815589754</v>
       </c>
       <c r="F72">
-        <v>0.3051254041788805</v>
+        <v>0.9678916800904277</v>
       </c>
       <c r="G72">
-        <v>496.4450001679497</v>
+        <v>11138.67805437822</v>
       </c>
       <c r="H72">
-        <v>779.7737034674363</v>
+        <v>15487.66767264614</v>
       </c>
       <c r="I72">
-        <v>0.3240849705981897</v>
+        <v>1.298496661528982</v>
       </c>
       <c r="J72">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>566.5494676464084</v>
+        <v>5237.182351445166</v>
       </c>
       <c r="C73">
-        <v>840.5847231890879</v>
+        <v>9764.611274785329</v>
       </c>
       <c r="D73">
-        <v>0.5535904531544852</v>
+        <v>-0.9486536439383747</v>
       </c>
       <c r="E73">
-        <v>-0.9160847928702132</v>
+        <v>-0.3651347256422998</v>
       </c>
       <c r="F73">
-        <v>0.3622387006489207</v>
+        <v>0.9631059077817806</v>
       </c>
       <c r="G73">
-        <v>481.633398502677</v>
+        <v>11096.48698122032</v>
       </c>
       <c r="H73">
-        <v>774.7980546545385</v>
+        <v>15336.57273900909</v>
       </c>
       <c r="I73">
-        <v>0.3935294150426342</v>
+        <v>1.180100435113888</v>
       </c>
       <c r="J73">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>491.8045826038348</v>
+        <v>5570.038731659861</v>
       </c>
       <c r="C74">
-        <v>876.2069168989536</v>
+        <v>10288.26073002633</v>
       </c>
       <c r="D74">
-        <v>0.5538713957184521</v>
+        <v>-0.9473499424903504</v>
       </c>
       <c r="E74">
-        <v>-0.8676909909485533</v>
+        <v>-0.5162590889348748</v>
       </c>
       <c r="F74">
-        <v>0.4265796583259557</v>
+        <v>0.855456060943338</v>
       </c>
       <c r="G74">
-        <v>467.2027507019303</v>
+        <v>11036.74396756816</v>
       </c>
       <c r="H74">
-        <v>768.8066417117676</v>
+        <v>15191.51916978461</v>
       </c>
       <c r="I74">
-        <v>0.4629738594870786</v>
+        <v>1.061704208698793</v>
       </c>
       <c r="J74">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>464.6506457805236</v>
+        <v>6065.010989285845</v>
       </c>
       <c r="C75">
-        <v>855.0036928044506</v>
+        <v>11070.23856822229</v>
       </c>
       <c r="D75">
-        <v>0.5608252183210848</v>
+        <v>-0.9530860563659586</v>
       </c>
       <c r="E75">
-        <v>-0.8838923801310345</v>
+        <v>-0.60193126728364</v>
       </c>
       <c r="F75">
-        <v>0.5440532493151277</v>
+        <v>0.7772733652734172</v>
       </c>
       <c r="G75">
-        <v>453.2226210470522</v>
+        <v>10960.28549324878</v>
       </c>
       <c r="H75">
-        <v>761.828346803067</v>
+        <v>15054.53790343862</v>
       </c>
       <c r="I75">
-        <v>0.532418303931523</v>
+        <v>0.9433079822836987</v>
       </c>
       <c r="J75">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>410.1247538441425</v>
+        <v>6740.198039611041</v>
       </c>
       <c r="C76">
-        <v>874.7344202612084</v>
+        <v>12466.66258166104</v>
       </c>
       <c r="D76">
-        <v>0.5553814332123237</v>
+        <v>-0.9557579164145156</v>
       </c>
       <c r="E76">
-        <v>-0.8089756356836522</v>
+        <v>-0.680317091771118</v>
       </c>
       <c r="F76">
-        <v>0.5419802972283684</v>
+        <v>0.7147086778682422</v>
       </c>
       <c r="G76">
-        <v>439.7604020547161</v>
+        <v>10868.18207626024</v>
       </c>
       <c r="H76">
-        <v>753.8968094487842</v>
+        <v>14927.54685570676</v>
       </c>
       <c r="I76">
-        <v>0.6018627483759674</v>
+        <v>0.8249117558686043</v>
       </c>
       <c r="J76">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>411.3980143984846</v>
+        <v>7924.370622964118</v>
       </c>
       <c r="C77">
-        <v>929.8450702982475</v>
+        <v>14555.9367974361</v>
       </c>
       <c r="D77">
-        <v>0.5544447442992217</v>
+        <v>-0.9409069323880516</v>
       </c>
       <c r="E77">
-        <v>-0.7617895826669969</v>
+        <v>-0.7560178126135216</v>
       </c>
       <c r="F77">
-        <v>0.6102141619185081</v>
+        <v>0.6676780199270074</v>
       </c>
       <c r="G77">
-        <v>426.8809896050244</v>
+        <v>10761.72328412855</v>
       </c>
       <c r="H77">
-        <v>745.0502643632309</v>
+        <v>14812.32406628183</v>
       </c>
       <c r="I77">
-        <v>0.6713071928204118</v>
+        <v>0.7065155294535099</v>
       </c>
       <c r="J77">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>384.8140996272399</v>
+        <v>9345.707371151148</v>
       </c>
       <c r="C78">
-        <v>814.0694010223243</v>
+        <v>17024.09988111225</v>
       </c>
       <c r="D78">
-        <v>0.5513063477015198</v>
+        <v>-0.9508336856460861</v>
       </c>
       <c r="E78">
-        <v>-0.7640144961310913</v>
+        <v>-0.851977454467584</v>
       </c>
       <c r="F78">
-        <v>0.6555215050899278</v>
+        <v>0.5691874544620817</v>
       </c>
       <c r="G78">
-        <v>414.6464701048767</v>
+        <v>10642.39967828648</v>
       </c>
       <c r="H78">
-        <v>735.3313571406824</v>
+        <v>14710.48280394752</v>
       </c>
       <c r="I78">
-        <v>0.7407516372648563</v>
+        <v>0.5881193030384155</v>
       </c>
       <c r="J78">
-        <v>0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>345.9111002315127</v>
+        <v>10655.14366290573</v>
       </c>
       <c r="C79">
-        <v>816.3387672056618</v>
+        <v>16618.2965303617</v>
       </c>
       <c r="D79">
-        <v>0.4072553824408259</v>
+        <v>-0.7080975944433745</v>
       </c>
       <c r="E79">
-        <v>-0.7168749186912792</v>
+        <v>-0.8647006551809832</v>
       </c>
       <c r="F79">
-        <v>0.7199489054445818</v>
+        <v>0.4868342193483811</v>
       </c>
       <c r="G79">
-        <v>405.998483422217</v>
+        <v>10544.51137777903</v>
       </c>
       <c r="H79">
-        <v>727.4230432939106</v>
+        <v>14645.20743502611</v>
       </c>
       <c r="I79">
-        <v>0.7928349705981896</v>
+        <v>0.4993221332270948</v>
       </c>
       <c r="J79">
-        <v>0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>396.3401745731576</v>
+        <v>10313.29932136255</v>
       </c>
       <c r="C80">
-        <v>789.9880188971858</v>
+        <v>15861.10050635815</v>
       </c>
       <c r="D80">
-        <v>0.2737581827980078</v>
+        <v>-0.4805228589766671</v>
       </c>
       <c r="E80">
-        <v>-0.6754437605397579</v>
+        <v>-0.9516744995740326</v>
       </c>
       <c r="F80">
-        <v>0.7504808059973506</v>
+        <v>0.431265047154538</v>
       </c>
       <c r="G80">
-        <v>400.5154470215363</v>
+        <v>10475.65052025796</v>
       </c>
       <c r="H80">
-        <v>721.8578417630754</v>
+        <v>14607.64916419646</v>
       </c>
       <c r="I80">
-        <v>0.8275571928204118</v>
+        <v>0.4401240200195476</v>
       </c>
       <c r="J80">
-        <v>0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>364.9586264294863</v>
+        <v>10656.68000290094</v>
       </c>
       <c r="C81">
-        <v>813.9711690618039</v>
+        <v>15822.64317392556</v>
       </c>
       <c r="D81">
-        <v>0.1405365961656242</v>
+        <v>-0.2314249948525308</v>
       </c>
       <c r="E81">
-        <v>-0.6404633148423552</v>
+        <v>-0.878491907128281</v>
       </c>
       <c r="F81">
-        <v>0.7523254566017393</v>
+        <v>0.3931313844598652</v>
       </c>
       <c r="G81">
-        <v>397.8721799561634</v>
+        <v>10440.16936297022</v>
       </c>
       <c r="H81">
-        <v>718.9817457487505</v>
+        <v>14590.93995029859</v>
       </c>
       <c r="I81">
-        <v>0.844918303931523</v>
+        <v>0.410524963415774</v>
       </c>
       <c r="J81">
-        <v>0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>347.322927064035</v>
+        <v>10034.64845654783</v>
       </c>
       <c r="C82">
-        <v>786.5647440588519</v>
+        <v>16021.86963679331</v>
       </c>
       <c r="D82">
-        <v>0.003754576372853589</v>
+        <v>-0.001926500420860341</v>
       </c>
       <c r="E82">
-        <v>-0.6994422518663519</v>
+        <v>-0.9531869634925543</v>
       </c>
       <c r="F82">
-        <v>0.7015011685073922</v>
+        <v>0.3955988341392433</v>
       </c>
       <c r="G82">
-        <v>397.8721799561634</v>
+        <v>10440.16936297022</v>
       </c>
       <c r="H82">
-        <v>718.9817457487505</v>
+        <v>14590.93995029859</v>
       </c>
       <c r="I82">
-        <v>0.844918303931523</v>
+        <v>0.410524963415774</v>
       </c>
       <c r="J82">
         <v>0</v>
